--- a/database/OLD/RAPRO22232023/FB/FB.xlsx
+++ b/database/OLD/RAPRO22232023/FB/FB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -8922,7 +8922,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -9312,7 +9312,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -10287,7 +10287,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -27369,7 +27369,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C691" t="n">
@@ -28422,7 +28422,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C718" t="n">
@@ -29397,7 +29397,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C743" t="n">
@@ -29514,7 +29514,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C746" t="n">
@@ -29553,7 +29553,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C747" t="n">
@@ -33336,7 +33336,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C844" t="n">
@@ -33453,7 +33453,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C847" t="n">
@@ -33492,7 +33492,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C848" t="n">
@@ -34974,7 +34974,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C886" t="n">
@@ -43788,7 +43788,7 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C1112" t="n">
@@ -44490,7 +44490,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C1130" t="n">
@@ -44568,7 +44568,7 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C1132" t="n">
@@ -59622,7 +59622,7 @@
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1518" t="n">
@@ -59739,7 +59739,7 @@
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C1521" t="n">
@@ -59817,7 +59817,7 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C1523" t="n">
@@ -60129,7 +60129,7 @@
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1531" t="n">
@@ -60402,7 +60402,7 @@
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1538" t="n">

--- a/database/OLD/RAPRO22232023/FB/FB.xlsx
+++ b/database/OLD/RAPRO22232023/FB/FB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -33336,7 +33336,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C844" t="n">
@@ -33453,7 +33453,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C847" t="n">
@@ -59622,7 +59622,7 @@
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1518" t="n">
@@ -60129,7 +60129,7 @@
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1531" t="n">
@@ -60402,7 +60402,7 @@
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C1538" t="n">

--- a/database/OLD/RAPRO22232023/FB/FB.xlsx
+++ b/database/OLD/RAPRO22232023/FB/FB.xlsx
@@ -42969,7 +42969,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C1091" t="n">
@@ -43008,7 +43008,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C1092" t="n">
